--- a/Modm_stargazer.xlsx
+++ b/Modm_stargazer.xlsx
@@ -1,21 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FF8347-0EDA-4D90-B9DA-5DAB9FD66CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>Modm_stargazer</t>
+  </si>
+  <si>
+    <t>========================================</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
+  </si>
+  <si>
+    <t>Dependent</t>
+  </si>
+  <si>
+    <t>variable:</t>
+  </si>
+  <si>
+    <t>---------------------------</t>
+  </si>
+  <si>
+    <t>lw_hora</t>
+  </si>
+  <si>
+    <t>mujer</t>
+  </si>
+  <si>
+    <t>-0.047***</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>8.648***</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>*p&lt;0.1;</t>
+  </si>
+  <si>
+    <t>**p&lt;0.05;</t>
+  </si>
+  <si>
+    <t>***p&lt;0.01</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,22 +126,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +224,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +276,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,130 +469,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Modm_stargazer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>========================================</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                 Dependent variable:    </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             ---------------------------</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                       lw_hora          </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>----------------------------------------</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mujer                 -0.047***         </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                       (0.015)          </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                        </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Constant              8.648***          </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                       (0.010)          </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                        </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>----------------------------------------</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Observations            9,785           </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">R2                      0.001           </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>========================================</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Note:        *p&lt;0.1; **p&lt;0.05; ***p&lt;0.01</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Modm_stargazer.xlsx
+++ b/Modm_stargazer.xlsx
@@ -1,95 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FF8347-0EDA-4D90-B9DA-5DAB9FD66CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>Modm_stargazer</t>
-  </si>
-  <si>
-    <t>========================================</t>
-  </si>
-  <si>
-    <t>----------------------------------------</t>
-  </si>
-  <si>
-    <t>Dependent</t>
-  </si>
-  <si>
-    <t>variable:</t>
-  </si>
-  <si>
-    <t>---------------------------</t>
-  </si>
-  <si>
-    <t>lw_hora</t>
-  </si>
-  <si>
-    <t>mujer</t>
-  </si>
-  <si>
-    <t>-0.047***</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>8.648***</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>*p&lt;0.1;</t>
-  </si>
-  <si>
-    <t>**p&lt;0.05;</t>
-  </si>
-  <si>
-    <t>***p&lt;0.01</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,31 +52,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -192,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,112 +350,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>9785</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Modm_stargazer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>========================================</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                 Dependent variable:    </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">             ---------------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                       lw_hora          </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>----------------------------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mujer                 -0.047***         </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                       (0.015)          </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constant              8.648***          </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                       (0.010)          </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>----------------------------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Observations            9,785           </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R2                      0.001           </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>========================================</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Note:        *p&lt;0.1; **p&lt;0.05; ***p&lt;0.01</t>
+        </is>
       </c>
     </row>
   </sheetData>
